--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 5 (37, 4, 45, 48, 20)/MDD 6 (36, 10, 39, 14, 18)/ANN_128nodes_Uniform0.05Virtual_Control(37, 4, 45, 48, 20)_MDD(36, 10, 39, 14, 18)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 5 (37, 4, 45, 48, 20)/MDD 6 (36, 10, 39, 14, 18)/ANN_128nodes_Uniform0.05Virtual_Control(37, 4, 45, 48, 20)_MDD(36, 10, 39, 14, 18)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -456,10 +456,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.02253359592142788</v>
+        <v>0.0005856970953741145</v>
       </c>
       <c r="E2">
-        <v>0.02253359592142788</v>
+        <v>0.0005856970953741145</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>9.436809335095537E-05</v>
+        <v>4.442043758037506E-10</v>
       </c>
       <c r="E3">
-        <v>9.436809335095537E-05</v>
+        <v>4.442043758037506E-10</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>2.034803919692479E-13</v>
+        <v>2.080953595817627E-20</v>
       </c>
       <c r="E4">
-        <v>2.034803919692479E-13</v>
+        <v>2.080953595817627E-20</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>6.906488375261329E-33</v>
+        <v>9.134247858550399E-25</v>
       </c>
       <c r="E5">
-        <v>6.906488375261329E-33</v>
+        <v>9.134247858550399E-25</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.0006893348163881771</v>
+        <v>0.002104692312757382</v>
       </c>
       <c r="E6">
-        <v>0.0006893348163881771</v>
+        <v>0.002104692312757382</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.9999459070357519</v>
+        <v>0.9999999999999982</v>
       </c>
       <c r="E7">
-        <v>5.409296424807586E-05</v>
+        <v>1.77635683940025E-15</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.9999999960484003</v>
+        <v>0.9999973039803586</v>
       </c>
       <c r="E8">
-        <v>3.95159971411374E-09</v>
+        <v>2.696019641423852E-06</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.99999999999975</v>
+        <v>0.9999999999992655</v>
       </c>
       <c r="E9">
-        <v>2.500222251455853E-13</v>
+        <v>7.345235530920036E-13</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -568,10 +568,10 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>0.977239226127476</v>
+        <v>0.6261004294296078</v>
       </c>
       <c r="E10">
-        <v>0.02276077387252395</v>
+        <v>0.3738995705703922</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,13 +582,13 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.9999999983889212</v>
+        <v>0.9999988350001748</v>
       </c>
       <c r="E11">
-        <v>1.611078825902723E-09</v>
+        <v>1.164999825165047E-06</v>
       </c>
       <c r="F11">
-        <v>0.004665044136345387</v>
+        <v>0.04709423333406448</v>
       </c>
       <c r="G11">
         <v>1</v>
